--- a/output_analysis/START_1_SEC_5.0_ENERGY_2.0_EV-FACTOR_22_EV_10_FLEX_300_TPS.txt.xlsx
+++ b/output_analysis/START_1_SEC_5.0_ENERGY_2.0_EV-FACTOR_22_EV_10_FLEX_300_TPS.txt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,285 +434,590 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vehicle-ID</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Vehicle-ID</t>
+          <t>Trips</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Trips</t>
+          <t>Number of Trips</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Ride-share Distances</t>
+          <t>Sequential Coverage</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Individual Coverages</t>
+          <t>Ride-share Coverage</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Individual Energy</t>
+          <t>Individual Coverage</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Ride-share Energy</t>
+          <t>Individual Cars</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>18 26 28 47 233</t>
-        </is>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>5 13 15 146</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
       </c>
       <c r="D2" t="n">
+        <v>99</v>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" t="n">
+        <v>17</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>6 8</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>58</v>
+      </c>
+      <c r="E3" t="n">
         <v>98</v>
       </c>
-      <c r="E2" t="n">
-        <v>125</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>20 22 238</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>99</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>23 93 129</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>77</v>
+      </c>
+      <c r="E5" t="n">
         <v>98</v>
       </c>
-      <c r="G2" t="n">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>37 69 160</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+      <c r="F5" t="n">
+        <v>12</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>25 66 274</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>89</v>
+      </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>31 33 46 56 164</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>115</v>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" t="n">
+        <v>17</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>54 58 64 88 96 156</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>119</v>
+      </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" t="n">
+        <v>23</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>63 70 95 97 201</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>122</v>
+      </c>
+      <c r="E9" t="n">
         <v>98</v>
       </c>
-      <c r="E3" t="n">
-        <v>89</v>
-      </c>
-      <c r="F3" t="n">
-        <v>98</v>
-      </c>
-      <c r="G3" t="n">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>63 97</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>98</v>
-      </c>
-      <c r="E4" t="n">
-        <v>77</v>
-      </c>
-      <c r="F4" t="n">
-        <v>98</v>
-      </c>
-      <c r="G4" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>68 108 111</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>88</v>
-      </c>
-      <c r="E5" t="n">
-        <v>69</v>
-      </c>
-      <c r="F5" t="n">
-        <v>88</v>
-      </c>
-      <c r="G5" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="F9" t="n">
+        <v>22</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>71 76 139 293</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>105 127 141 269</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>98</v>
-      </c>
-      <c r="E6" t="n">
-        <v>82</v>
-      </c>
-      <c r="F6" t="n">
-        <v>98</v>
-      </c>
-      <c r="G6" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>146 159 264</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>96</v>
-      </c>
-      <c r="E7" t="n">
-        <v>64</v>
-      </c>
-      <c r="F7" t="n">
-        <v>96</v>
-      </c>
-      <c r="G7" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>179 259</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>72</v>
-      </c>
-      <c r="E8" t="n">
-        <v>44</v>
-      </c>
-      <c r="F8" t="n">
-        <v>72</v>
-      </c>
-      <c r="G8" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>209 298</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>100</v>
-      </c>
-      <c r="E9" t="n">
-        <v>68</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>228 249 258</t>
-        </is>
       </c>
       <c r="D10" t="n">
         <v>100</v>
       </c>
       <c r="E10" t="n">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
+        <v>11</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>78 114 206</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>82</v>
+      </c>
+      <c r="E11" t="n">
+        <v>90</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>81 90 106 119</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>67</v>
+      </c>
+      <c r="E12" t="n">
         <v>100</v>
       </c>
-      <c r="G10" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="F12" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>113 117</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>76</v>
+      </c>
+      <c r="E13" t="n">
+        <v>100</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>121 122 163</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>81</v>
+      </c>
+      <c r="E14" t="n">
+        <v>96</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>130 140 169</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>91</v>
+      </c>
+      <c r="E15" t="n">
+        <v>98</v>
+      </c>
+      <c r="F15" t="n">
+        <v>11</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>131 145 166</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>65</v>
+      </c>
+      <c r="E16" t="n">
+        <v>90</v>
+      </c>
+      <c r="F16" t="n">
+        <v>8</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>143 149 151</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>71</v>
+      </c>
+      <c r="E17" t="n">
+        <v>100</v>
+      </c>
+      <c r="F17" t="n">
+        <v>8</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>148 158 268</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>64</v>
+      </c>
+      <c r="E18" t="n">
+        <v>98</v>
+      </c>
+      <c r="F18" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="G18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>173 177 180</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>76</v>
+      </c>
+      <c r="E19" t="n">
+        <v>98</v>
+      </c>
+      <c r="F19" t="n">
+        <v>14</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>178 181 248</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>102</v>
+      </c>
+      <c r="E20" t="n">
+        <v>98</v>
+      </c>
+      <c r="F20" t="n">
         <v>9</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>243</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
+      <c r="G20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>185 187</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>88</v>
+      </c>
+      <c r="E21" t="n">
+        <v>98</v>
+      </c>
+      <c r="F21" t="n">
+        <v>11</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>190 229 233</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>92</v>
+      </c>
+      <c r="E22" t="n">
         <v>96</v>
       </c>
-      <c r="E11" t="n">
-        <v>50</v>
-      </c>
-      <c r="F11" t="n">
-        <v>96</v>
-      </c>
-      <c r="G11" t="n">
-        <v>50</v>
+      <c r="F22" t="n">
+        <v>8</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>191 196</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>58</v>
+      </c>
+      <c r="E23" t="n">
+        <v>100</v>
+      </c>
+      <c r="F23" t="n">
+        <v>14</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
